--- a/13-Victory Aftermath 战斗胜利结束.xlsx
+++ b/13-Victory Aftermath 战斗胜利结束.xlsx
@@ -28,8 +28,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Filename: 文件名
+  Volume: 音量
+  Pitch:  音调
+  Pan:    声像</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Filename: 文件名
+  Volume: 音量
+  Pitch:  音调
+  Pan:    声像</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
   <si>
     <t>&lt;Level Up Quotes&gt;
  text
@@ -189,13 +229,13 @@
     <t>清除 指定角色 习得新技能 时的台词</t>
   </si>
   <si>
-    <t>System Plugin Commands</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>System: Bypass Victory Motion</t>
+    <t>Post-Battle Plugin Commands</t>
+  </si>
+  <si>
+    <t>战斗后插件命令</t>
+  </si>
+  <si>
+    <t>Post-Battle: Set Post-Battle BGM</t>
   </si>
   <si>
     <r>
@@ -206,7 +246,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">绕过胜利动作？    </t>
+      <t xml:space="preserve">战斗后：设定战斗后播放的BGM    </t>
     </r>
     <r>
       <rPr>
@@ -216,11 +256,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>省略玩家角色表演他们的胜利动作</t>
-    </r>
-  </si>
-  <si>
-    <t>System: Bypass Victory Music</t>
+      <t>- 仅在战斗中使用！</t>
+    </r>
+  </si>
+  <si>
+    <t>Post-Battle: Set Post-Battle BGS</t>
   </si>
   <si>
     <r>
@@ -231,7 +271,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">绕过胜利音乐？    </t>
+      <t xml:space="preserve">战斗后：设定战斗后播放的BGS    </t>
     </r>
     <r>
       <rPr>
@@ -241,77 +281,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>省略播放胜利音乐？</t>
-    </r>
-  </si>
-  <si>
-    <t>System: Bypass Victory Phase</t>
-  </si>
-  <si>
-    <t>绕过整个胜利阶段和所有方面？</t>
-  </si>
-  <si>
-    <t>General Settings</t>
-  </si>
-  <si>
-    <t>常规设置</t>
-  </si>
-  <si>
-    <t>Fade In Speed:</t>
-  </si>
-  <si>
-    <t>胜利窗口 的 淡入速度</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Hide Delay (MS):</t>
-  </si>
-  <si>
-    <t>隐藏UI窗口之前的延迟（单位：毫秒）</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>Show Delay (MS):</t>
-  </si>
-  <si>
-    <t>显示胜利窗口之前的延迟（单位：毫秒）</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Update Duration:</t>
-  </si>
-  <si>
-    <t>更新角色的 EXP仪表 的持续时间（单位：帧）</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Auto Skip Auto Battle?:</t>
-  </si>
-  <si>
-    <t>如果玩家决定使用自动战斗命令，跳过胜利后的序列？</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Mirror Contents?:</t>
-  </si>
-  <si>
-    <t>镜像内容？：镜像EXP、Gold和Items的位置？</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Show EXP Gauges?:</t>
+      <t>- 仅在战斗中使用！</t>
+    </r>
+  </si>
+  <si>
+    <t>System Plugin Commands</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>System: Bypass Victory Motion</t>
   </si>
   <si>
     <r>
@@ -322,6 +302,122 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">绕过胜利动作？    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省略玩家角色表演他们的胜利动作</t>
+    </r>
+  </si>
+  <si>
+    <t>System: Bypass Victory Music</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">绕过胜利音乐？    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省略播放胜利音乐？</t>
+    </r>
+  </si>
+  <si>
+    <t>System: Bypass Victory Phase</t>
+  </si>
+  <si>
+    <t>绕过整个胜利阶段和所有方面？</t>
+  </si>
+  <si>
+    <t>General Settings</t>
+  </si>
+  <si>
+    <t>常规设置</t>
+  </si>
+  <si>
+    <t>Fade In Speed:</t>
+  </si>
+  <si>
+    <t>胜利窗口 的 淡入速度</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Hide Delay (MS):</t>
+  </si>
+  <si>
+    <t>隐藏UI窗口之前的延迟（单位：毫秒）</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Show Delay (MS):</t>
+  </si>
+  <si>
+    <t>显示胜利窗口之前的延迟（单位：毫秒）</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Update Duration:</t>
+  </si>
+  <si>
+    <t>更新角色的 EXP仪表 的持续时间（单位：帧）</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Auto Skip Auto Battle?:</t>
+  </si>
+  <si>
+    <t>如果玩家决定使用自动战斗命令，跳过胜利后的序列？</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Mirror Contents?:</t>
+  </si>
+  <si>
+    <t>镜像内容？：镜像EXP、Gold和Items的位置？</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Show EXP Gauges?:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">显示EXP仪表？
 </t>
     </r>
@@ -336,6 +432,15 @@
       <t>胜利后在第一屏上显示主要队员的EXP？
 因为有些比较大的队伍，不能把所有成员都放在一个屏幕上，所以宁愿不显示任何经验条。</t>
     </r>
+  </si>
+  <si>
+    <t>Drops Sorted By:</t>
+  </si>
+  <si>
+    <t>将掉落设置为按ID或名称排序。</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Collapse Effect</t>
@@ -801,7 +906,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1109,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1936,15 +2046,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="75.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1992,56 +2102,91 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="1" spans="1:1">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:2">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+    <row r="9" customFormat="1" spans="1:2">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+    <row r="10" customFormat="1" spans="1:1">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2053,10 +2198,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2065,600 +2210,612 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="37.5" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:4">
-      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="12"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
+    <row r="24" spans="1:3">
+      <c r="A24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="32" customFormat="1" spans="1:4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="1" spans="1:4">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" ht="25.5" spans="1:3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" ht="25.5" spans="1:3">
       <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" ht="25.5" spans="1:3">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="14" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" ht="25.5" spans="1:3">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/13-Victory Aftermath 战斗胜利结束.xlsx
+++ b/13-Victory Aftermath 战斗胜利结束.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="172">
   <si>
     <t>&lt;Level Up Quotes&gt;
  text
@@ -347,6 +347,12 @@
     <t>绕过整个胜利阶段和所有方面？</t>
   </si>
   <si>
+    <t>System: Change Victory BGM</t>
+  </si>
+  <si>
+    <t>更改胜利BGM</t>
+  </si>
+  <si>
     <t>General Settings</t>
   </si>
   <si>
@@ -441,6 +447,30 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Color Settings</t>
+  </si>
+  <si>
+    <t>颜色设置</t>
+  </si>
+  <si>
+    <t>Background Color 1:
+Background Color 2:
+Reward Strip 1:
+Reward Strip 2:
+Actor Strip:</t>
+  </si>
+  <si>
+    <t>带有一些alpha设置的颜色。
+格式 rgba(0-255, 0-255, 0-255, 0-1)</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0.8)
+rgba(0, 0, 0, 0.4)
+rgba(0, 0, 0, 1.0)
+rgba(0, 0, 0, 0.0)
+rgba(0, 0, 0, 1.0)</t>
   </si>
   <si>
     <t>Collapse Effect</t>
@@ -1596,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,32 +1657,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2015,7 +2048,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="216" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2026,7 +2059,7 @@
       </c>
     </row>
     <row r="2" ht="216" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2046,10 +2079,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2071,7 +2104,7 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" ht="25.5" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2079,7 +2112,7 @@
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2087,7 +2120,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -2095,7 +2128,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -2103,7 +2136,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -2118,23 +2151,23 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="1" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -2149,28 +2182,39 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2183,25 +2227,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="80.25" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2210,337 +2255,330 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="37.5" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="12" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:4">
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
         <v>62</v>
       </c>
+      <c r="B15" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="B22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:4">
+      <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>89</v>
+      <c r="A27" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2548,11 +2586,10 @@
         <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2560,193 +2597,195 @@
         <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="B35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:4">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" ht="25.5" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>44</v>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" ht="25.5" spans="1:3">
+      <c r="A42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:4">
-      <c r="A44" s="7" t="s">
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" ht="25.5" spans="1:3">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:4">
+      <c r="A47" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" ht="25.5" spans="1:3">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="C48" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2754,68 +2793,101 @@
         <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>151</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>158</v>
+        <v>75</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>159</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D57" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="B58" t="s">
         <v>164</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
